--- a/Resources/1991/Advanced_Percentile_1991.xlsx
+++ b/Resources/1991/Advanced_Percentile_1991.xlsx
@@ -1216,43 +1216,43 @@
     <t>curetea01</t>
   </si>
   <si>
-    <t>Michael Jordan*</t>
-  </si>
-  <si>
-    <t>Charles Barkley*</t>
-  </si>
-  <si>
-    <t>Karl Malone*</t>
-  </si>
-  <si>
-    <t>David Robinson*</t>
+    <t>Michael Jordan</t>
+  </si>
+  <si>
+    <t>Charles Barkley</t>
+  </si>
+  <si>
+    <t>Karl Malone</t>
+  </si>
+  <si>
+    <t>David Robinson</t>
   </si>
   <si>
     <t>Kevin Johnson</t>
   </si>
   <si>
-    <t>Magic Johnson*</t>
-  </si>
-  <si>
-    <t>Patrick Ewing*</t>
-  </si>
-  <si>
-    <t>Clyde Drexler*</t>
-  </si>
-  <si>
-    <t>Chris Mullin*</t>
-  </si>
-  <si>
-    <t>Dominique Wilkins*</t>
-  </si>
-  <si>
-    <t>Reggie Miller*</t>
-  </si>
-  <si>
-    <t>Kevin McHale*</t>
-  </si>
-  <si>
-    <t>Hakeem Olajuwon*</t>
+    <t>Magic Johnson</t>
+  </si>
+  <si>
+    <t>Patrick Ewing</t>
+  </si>
+  <si>
+    <t>Clyde Drexler</t>
+  </si>
+  <si>
+    <t>Chris Mullin</t>
+  </si>
+  <si>
+    <t>Dominique Wilkins</t>
+  </si>
+  <si>
+    <t>Reggie Miller</t>
+  </si>
+  <si>
+    <t>Kevin McHale</t>
+  </si>
+  <si>
+    <t>Hakeem Olajuwon</t>
   </si>
   <si>
     <t>Hersey Hawkins</t>
@@ -1261,7 +1261,7 @@
     <t>Ricky Pierce</t>
   </si>
   <si>
-    <t>John Stockton*</t>
+    <t>John Stockton</t>
   </si>
   <si>
     <t>Ian Lockhart</t>
@@ -1279,7 +1279,7 @@
     <t>Tim Hardaway</t>
   </si>
   <si>
-    <t>Scottie Pippen*</t>
+    <t>Scottie Pippen</t>
   </si>
   <si>
     <t>Larry Nance</t>
@@ -1288,7 +1288,7 @@
     <t>Michael Adams</t>
   </si>
   <si>
-    <t>Joe Dumars*</t>
+    <t>Joe Dumars</t>
   </si>
   <si>
     <t>Roy Tarpley</t>
@@ -1297,7 +1297,7 @@
     <t>Detlef Schrempf</t>
   </si>
   <si>
-    <t>Robert Parish*</t>
+    <t>Robert Parish</t>
   </si>
   <si>
     <t>Kenny Smith</t>
@@ -1309,13 +1309,13 @@
     <t>Micheal Williams</t>
   </si>
   <si>
-    <t>James Worthy*</t>
-  </si>
-  <si>
-    <t>Larry Bird*</t>
-  </si>
-  <si>
-    <t>Mitch Richmond*</t>
+    <t>James Worthy</t>
+  </si>
+  <si>
+    <t>Larry Bird</t>
+  </si>
+  <si>
+    <t>Mitch Richmond</t>
   </si>
   <si>
     <t>Mark Price</t>
@@ -1387,7 +1387,7 @@
     <t>Horace Grant</t>
   </si>
   <si>
-    <t>Drazen Petrovic*</t>
+    <t>Drazen Petrovic</t>
   </si>
   <si>
     <t>Dale Ellis</t>
@@ -1405,13 +1405,13 @@
     <t>Derrick McKey</t>
   </si>
   <si>
-    <t>Sarunas Marciulionis*</t>
-  </si>
-  <si>
-    <t>Moses Malone*</t>
-  </si>
-  <si>
-    <t>Bernard King*</t>
+    <t>Sarunas Marciulionis</t>
+  </si>
+  <si>
+    <t>Moses Malone</t>
+  </si>
+  <si>
+    <t>Bernard King</t>
   </si>
   <si>
     <t>Byron Irvin</t>
@@ -1438,7 +1438,7 @@
     <t>Pat Cummings</t>
   </si>
   <si>
-    <t>Isiah Thomas*</t>
+    <t>Isiah Thomas</t>
   </si>
   <si>
     <t>Spud Webb</t>
@@ -1630,7 +1630,7 @@
     <t>Olden Polynice</t>
   </si>
   <si>
-    <t>Dennis Rodman*</t>
+    <t>Dennis Rodman</t>
   </si>
   <si>
     <t>Nick Anderson</t>
@@ -1642,7 +1642,7 @@
     <t>John Starks</t>
   </si>
   <si>
-    <t>Maurice Cheeks*</t>
+    <t>Maurice Cheeks</t>
   </si>
   <si>
     <t>Lionel Simmons</t>
@@ -1858,7 +1858,7 @@
     <t>Tim McCormick</t>
   </si>
   <si>
-    <t>Gary Payton*</t>
+    <t>Gary Payton</t>
   </si>
   <si>
     <t>Dave Popson</t>
@@ -1903,7 +1903,7 @@
     <t>Steve Johnson</t>
   </si>
   <si>
-    <t>Adrian Dantley*</t>
+    <t>Adrian Dantley</t>
   </si>
   <si>
     <t>Danny Young</t>
@@ -2044,7 +2044,7 @@
     <t>Danny Ferry</t>
   </si>
   <si>
-    <t>Alex English*</t>
+    <t>Alex English</t>
   </si>
   <si>
     <t>Scott Meents</t>
@@ -2353,7 +2353,7 @@
     <t>Kurk Lee</t>
   </si>
   <si>
-    <t>Ralph Sampson*</t>
+    <t>Ralph Sampson</t>
   </si>
   <si>
     <t>Bart Kofoed</t>
